--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2818002.477237154</v>
+        <v>2933436.567978607</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.60338682606166</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>96.86671316392739</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>179.6738228543545</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.51003348857964</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443444</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>76.08121802014911</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>188.8837547751705</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>89.58233480792435</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804581</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>188.8837547751705</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>188.8837547751705</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -978,25 +980,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>58.81797564619267</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14162995515539</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>12.16149962886175</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.8837547751705</v>
+        <v>119.1849370168363</v>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.45534151883183</v>
+        <v>113.3237299842573</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>338.1012835849935</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>8.296101769922059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>34.21107354779731</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>42.6200601712214</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>142.710278997541</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>56.10180801516471</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6447768750174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>184.6141907640395</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2132,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.888808295739</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>148.1185786361436</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>10.74993283584344</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>47.33239976701598</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>5.623597659135725</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6324680438218387</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>98.99704524587912</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>161.1945470524445</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>22.54881804343218</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>115.2707447515123</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>143.5476780877522</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>59.96838802184498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>60.86846495359922</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>162.7401913819093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.3906707271972</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271972</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271972</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271972</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>28.23218154912178</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>723.2302407601667</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>723.2302407601667</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T2" t="n">
-        <v>723.2302407601667</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="U2" t="n">
-        <v>723.2302407601667</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="V2" t="n">
-        <v>723.2302407601667</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="W2" t="n">
-        <v>533.8104557436819</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="X2" t="n">
-        <v>533.8104557436819</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="Y2" t="n">
-        <v>344.3906707271972</v>
+        <v>224.5974673148098</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.3132498559669</v>
+        <v>189.7740686784161</v>
       </c>
       <c r="C3" t="n">
-        <v>327.3132498559669</v>
+        <v>189.7740686784161</v>
       </c>
       <c r="D3" t="n">
-        <v>327.3132498559669</v>
+        <v>189.7740686784161</v>
       </c>
       <c r="E3" t="n">
-        <v>168.0757948505114</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="F3" t="n">
-        <v>168.0757948505114</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U3" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>568.6136387113851</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>379.1938536949006</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>379.1938536949006</v>
       </c>
       <c r="Y3" t="n">
-        <v>327.3132498559669</v>
+        <v>189.7740686784161</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.3895787487761</v>
+        <v>442.0726063848217</v>
       </c>
       <c r="C5" t="n">
-        <v>296.3895787487761</v>
+        <v>365.2228912129539</v>
       </c>
       <c r="D5" t="n">
-        <v>296.3895787487761</v>
+        <v>365.2228912129539</v>
       </c>
       <c r="E5" t="n">
-        <v>296.3895787487761</v>
+        <v>365.2228912129539</v>
       </c>
       <c r="F5" t="n">
-        <v>105.5979072587049</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>15.11070038201364</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590493</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543608</v>
+        <v>277.9807166746975</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186806</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398422</v>
+        <v>823.5081935709175</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681859</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875728</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574777</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006819</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>677.9729217289184</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="S5" t="n">
-        <v>677.9729217289184</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="T5" t="n">
-        <v>677.9729217289184</v>
+        <v>1516.043480974318</v>
       </c>
       <c r="U5" t="n">
-        <v>677.9729217289184</v>
+        <v>1516.043480974318</v>
       </c>
       <c r="V5" t="n">
-        <v>677.9729217289184</v>
+        <v>1184.980593630748</v>
       </c>
       <c r="W5" t="n">
-        <v>487.1812502388473</v>
+        <v>832.2119383606334</v>
       </c>
       <c r="X5" t="n">
-        <v>487.1812502388473</v>
+        <v>832.2119383606334</v>
       </c>
       <c r="Y5" t="n">
-        <v>296.3895787487761</v>
+        <v>442.0726063848217</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550.7414526498912</v>
+        <v>452.9904701896475</v>
       </c>
       <c r="C6" t="n">
-        <v>376.2884233687642</v>
+        <v>278.5374409085205</v>
       </c>
       <c r="D6" t="n">
-        <v>227.3540137075129</v>
+        <v>278.5374409085205</v>
       </c>
       <c r="E6" t="n">
-        <v>227.3540137075129</v>
+        <v>278.5374409085205</v>
       </c>
       <c r="F6" t="n">
-        <v>227.3540137075129</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="G6" t="n">
-        <v>89.81737270660764</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="H6" t="n">
-        <v>89.81737270660764</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>30.40527609429181</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201364</v>
+        <v>61.66788464787527</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340881</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208084</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914185</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>514.829623354862</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747569</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165449</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994187</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>753.8174671994187</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="S6" t="n">
-        <v>753.8174671994187</v>
+        <v>1258.309378699369</v>
       </c>
       <c r="T6" t="n">
-        <v>753.8174671994187</v>
+        <v>1062.768760419123</v>
       </c>
       <c r="U6" t="n">
-        <v>741.5331241399624</v>
+        <v>1062.768760419123</v>
       </c>
       <c r="V6" t="n">
-        <v>741.5331241399624</v>
+        <v>827.6166521873806</v>
       </c>
       <c r="W6" t="n">
-        <v>741.5331241399624</v>
+        <v>573.379295459179</v>
       </c>
       <c r="X6" t="n">
-        <v>741.5331241399624</v>
+        <v>573.379295459179</v>
       </c>
       <c r="Y6" t="n">
-        <v>550.7414526498912</v>
+        <v>452.9904701896475</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="C7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="D7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="E7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="F7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201364</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426268</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709747873</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208628045</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484548014</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484548014</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484548014</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="R7" t="n">
-        <v>69.10599484548014</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="S7" t="n">
-        <v>69.10599484548014</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="T7" t="n">
-        <v>69.10599484548014</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="U7" t="n">
-        <v>69.10599484548014</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="V7" t="n">
-        <v>15.11070038201364</v>
+        <v>255.3506354602878</v>
       </c>
       <c r="W7" t="n">
-        <v>15.11070038201364</v>
+        <v>255.3506354602878</v>
       </c>
       <c r="X7" t="n">
-        <v>15.11070038201364</v>
+        <v>255.3506354602878</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.11070038201364</v>
+        <v>34.55805631675766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855436</v>
+        <v>1193.650443247784</v>
       </c>
       <c r="C8" t="n">
-        <v>942.9472709150248</v>
+        <v>852.1339951821336</v>
       </c>
       <c r="D8" t="n">
-        <v>942.9472709150248</v>
+        <v>852.1339951821336</v>
       </c>
       <c r="E8" t="n">
-        <v>942.9472709150248</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="F8" t="n">
-        <v>531.9613661254173</v>
+        <v>55.3598377942818</v>
       </c>
       <c r="G8" t="n">
-        <v>116.8889159704137</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711883</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919558</v>
+        <v>1193.650443247784</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>655.7157345966835</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>481.2627053155565</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>481.2627053155565</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>322.025250310101</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1560.716998527115</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1325.564890295372</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1071.32753356717</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>863.4760333616375</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>655.7157345966835</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428.6155046019426</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="C10" t="n">
-        <v>259.6793216740357</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D10" t="n">
-        <v>109.5626822617</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E10" t="n">
-        <v>109.5626822617</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F10" t="n">
-        <v>109.5626822617</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G10" t="n">
-        <v>109.5626822617</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>109.5626822617</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757124</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757124</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757124</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757124</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="Y10" t="n">
-        <v>610.2639694321823</v>
+        <v>43.36919653809314</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,22 +5178,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5258,31 +5260,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6442739835331</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>374.283690502471</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5780,19 +5782,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2297.348357685166</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.746892708107</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1788.671666052305</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1533.987177846418</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.570007809457</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.58045691144</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>917.5010142286973</v>
+        <v>3206.505799599952</v>
       </c>
       <c r="C25" t="n">
-        <v>748.5648313007904</v>
+        <v>3037.569616672045</v>
       </c>
       <c r="D25" t="n">
-        <v>598.4481918884546</v>
+        <v>2887.452977259709</v>
       </c>
       <c r="E25" t="n">
-        <v>450.5350983060615</v>
+        <v>2739.539883677316</v>
       </c>
       <c r="F25" t="n">
-        <v>450.5350983060615</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>283.3389990209415</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>141.6271678631395</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y25" t="n">
-        <v>1099.149479058937</v>
+        <v>3388.154264430192</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,28 +6229,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492579</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>913.2907898187001</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>643.5829084413765</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>495.6698148589834</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>348.779867361073</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>181.5837680759529</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.3929232910542</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C31" t="n">
-        <v>782.4567403631473</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D31" t="n">
-        <v>632.3401009508116</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.833967264824</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.041388121294</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6712,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1814.638305710059</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1559.953817504172</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1270.536647467212</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1042.547096569194</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>821.7545174256642</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,16 +7022,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>3175.34112979674</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>3006.404946868833</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>2856.288307456497</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>2708.375213874104</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.857387650099</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3897.172899444212</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3607.755729407251</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3379.766178509234</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3356.989594626979</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362682</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300426</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>3210.485548300426</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>986.1256051221279</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C40" t="n">
-        <v>817.189422194221</v>
+        <v>3173.601046153954</v>
       </c>
       <c r="D40" t="n">
-        <v>667.0727827818853</v>
+        <v>3023.484406741618</v>
       </c>
       <c r="E40" t="n">
-        <v>519.1596891994922</v>
+        <v>2875.571313159225</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>4295.934959671808</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>4006.859733016005</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>3752.175244810118</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.556199993915</v>
+        <v>3752.175244810118</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.566649095898</v>
+        <v>3524.1856939121</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.774069952368</v>
+        <v>3524.1856939121</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,19 +7408,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C43" t="n">
-        <v>695.5020655703109</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D43" t="n">
-        <v>545.3854261579752</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4629.349854465665</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4409.748389488606</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>4120.673162832804</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>4120.673162832804</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="44">
@@ -7640,46 +7642,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7740,10 +7742,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>705.9324428257312</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>887.5809076559709</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>97.5789915191115</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.93987647707743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>67.52345255978847</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.726664722473316</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>32.90770736550095</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6711151870878</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33.93343655154955</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.6711151870881</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.8014946027473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>126.712610143158</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>124.9899273367996</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>196.0358353086626</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>30.15030327141895</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>73.85777223953619</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>86.46557462472418</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>120.1578210480454</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="L2" t="n">
-        <v>686074.6097365052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218517712</v>
+        <v>270592.3620253125</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385749</v>
+        <v>115410.0540231942</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811546045</v>
+        <v>62913.63765881968</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.447369419</v>
+        <v>27875.25362197523</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.338561669989887e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444457</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687955</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622564</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228993.7633819482</v>
+        <v>-228993.7633819475</v>
       </c>
       <c r="C6" t="n">
-        <v>361151.4986554518</v>
+        <v>144252.9847136138</v>
       </c>
       <c r="D6" t="n">
-        <v>-165811.86471938</v>
+        <v>323073.3784166774</v>
       </c>
       <c r="E6" t="n">
-        <v>244102.9780983635</v>
+        <v>-31927.76766854549</v>
       </c>
       <c r="F6" t="n">
+        <v>569515.4399057187</v>
+      </c>
+      <c r="G6" t="n">
+        <v>569515.439905719</v>
+      </c>
+      <c r="H6" t="n">
+        <v>569515.439905719</v>
+      </c>
+      <c r="I6" t="n">
+        <v>569515.4399057187</v>
+      </c>
+      <c r="J6" t="n">
+        <v>520450.4951771739</v>
+      </c>
+      <c r="K6" t="n">
+        <v>506601.8022468991</v>
+      </c>
+      <c r="L6" t="n">
+        <v>541640.1862837439</v>
+      </c>
+      <c r="M6" t="n">
+        <v>412369.0593541209</v>
+      </c>
+      <c r="N6" t="n">
         <v>569515.4399057189</v>
-      </c>
-      <c r="G6" t="n">
-        <v>569515.4399057187</v>
-      </c>
-      <c r="H6" t="n">
-        <v>569515.4399057188</v>
-      </c>
-      <c r="I6" t="n">
-        <v>569515.4399057189</v>
-      </c>
-      <c r="J6" t="n">
-        <v>520450.4951771742</v>
-      </c>
-      <c r="K6" t="n">
-        <v>569165.891024564</v>
-      </c>
-      <c r="L6" t="n">
-        <v>406899.9925362995</v>
-      </c>
-      <c r="M6" t="n">
-        <v>484460.411970207</v>
-      </c>
-      <c r="N6" t="n">
-        <v>569515.4399057191</v>
       </c>
       <c r="O6" t="n">
         <v>569515.4399057187</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057188</v>
+        <v>569515.4399057184</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373982</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751705</v>
+        <v>431.9757039594707</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.167320208748736e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16914972449365</v>
+        <v>210.4296883821571</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099558998</v>
+        <v>94.81103524262357</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608850607</v>
+        <v>244.4501167931511</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271219</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>1.35816760885038</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271222</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608850607</v>
+        <v>244.4501167931511</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271219</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>630.5933313734841</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.47833219060213</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>252.3742555534856</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>53.12676429507073</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>162.1726622887247</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390158</v>
+        <v>234.0491352390163</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>289.1916737508585</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>217.992290966541</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>323.5107983227388</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132938</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380509</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750907</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711054</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>160.3572139422425</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>197.3541838808831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167139</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505418</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3994614844842</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>213.7021033355134</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.79894100213389</v>
+        <v>86.49775876046809</v>
       </c>
     </row>
     <row r="7">
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.643817356299</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157569</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355264</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,25 +27815,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882069</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319871</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510618</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279249</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>198.6823018049962</v>
+        <v>138.8139133395707</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>27.17160818601405</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>286.3116626173984</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27983,10 +27985,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>191.6095004202712</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>53.73236023861671</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>54.47741176207487</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471951</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247337</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235497</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265764</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212742</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025577</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749108</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322917</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807341987</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925474</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736456</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160863</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115463</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>9.67254319302597</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.176768350757756</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314404</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682595</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380733</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115113</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565763</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509849</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>299.553304397382</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161045</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453485</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>225.7564785676514</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010456</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229257</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>21.95963725329604</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337441</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963185</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264557</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989768</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095924</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782042</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269827</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521969</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124698</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852349</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742667</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203269</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624714</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610771</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904741</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976673</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417037</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32020,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32561,7 +32563,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>428.7353800421384</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>147.4873481937407</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078241</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>230.1272937575231</v>
+        <v>405.637736314576</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599890132</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629363</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325705</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>157.640962647638</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357008</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>142.195269312512</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727784</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919608</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221735</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711107</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753637</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327712</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009041</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332114</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502413</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095863</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>16.4418691648647</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000173</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322423931</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>297.3936679588052</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>339.2956687594475</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>20.64972152707399</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>98.78558167418976</v>
+        <v>274.2960242312427</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37710,16 +37712,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2933436.567978607</v>
+        <v>2929131.444981538</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>178.8948621820433</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>96.86671316392739</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>85.36332079774546</v>
       </c>
       <c r="V3" t="n">
-        <v>179.6738228543545</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443454</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>76.08121802014911</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.8578877276004</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>78.57111331219672</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074799</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>108.6193017554646</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>119.1849370168363</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304048</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.42206065199772</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>113.3237299842573</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>338.1012835849935</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>272.7205398799885</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.21107354779731</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>135.8754739680284</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142.710278997541</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>48.85497112745768</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>94.30373791808233</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>56.10180801516471</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>184.6141907640395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>141.888808295739</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>10.74993283584344</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>80.10107535865944</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>5.623597659135725</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.019807611472458</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>98.99704524587912</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2950343703271</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>22.54881804343218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>143.5476780877522</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>60.86846495359922</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.600826611595375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148098</v>
+        <v>511.862417143344</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.862417143344</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.862417143344</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.862417143344</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912178</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058979</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433421</v>
+        <v>511.862417143344</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433421</v>
+        <v>511.862417143344</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433421</v>
+        <v>511.862417143344</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433421</v>
+        <v>511.862417143344</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312942</v>
+        <v>511.862417143344</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312942</v>
+        <v>511.862417143344</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148098</v>
+        <v>511.862417143344</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.7740686784161</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7740686784161</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>189.7740686784161</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652786</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652786</v>
+        <v>512.5936966564973</v>
       </c>
       <c r="V3" t="n">
-        <v>568.6136387113851</v>
+        <v>512.5936966564973</v>
       </c>
       <c r="W3" t="n">
-        <v>379.1938536949006</v>
+        <v>512.5936966564973</v>
       </c>
       <c r="X3" t="n">
-        <v>379.1938536949006</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.7740686784161</v>
+        <v>323.1739116400124</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.0726063848217</v>
+        <v>1295.76939964636</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2228912129539</v>
+        <v>1295.76939964636</v>
       </c>
       <c r="D5" t="n">
-        <v>365.2228912129539</v>
+        <v>937.5037010396093</v>
       </c>
       <c r="E5" t="n">
-        <v>365.2228912129539</v>
+        <v>551.7154484413651</v>
       </c>
       <c r="F5" t="n">
-        <v>358.2773904637505</v>
+        <v>140.7295436517575</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182461</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675766</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746975</v>
+        <v>277.9807166746978</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030759</v>
+        <v>521.2049416030763</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709175</v>
+        <v>823.5081935709181</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.41363507924</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332757</v>
+        <v>1621.822248332759</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="T5" t="n">
-        <v>1516.043480974318</v>
+        <v>1648.538054916474</v>
       </c>
       <c r="U5" t="n">
-        <v>1516.043480974318</v>
+        <v>1648.538054916474</v>
       </c>
       <c r="V5" t="n">
-        <v>1184.980593630748</v>
+        <v>1648.538054916474</v>
       </c>
       <c r="W5" t="n">
-        <v>832.2119383606334</v>
+        <v>1295.76939964636</v>
       </c>
       <c r="X5" t="n">
-        <v>832.2119383606334</v>
+        <v>1295.76939964636</v>
       </c>
       <c r="Y5" t="n">
-        <v>442.0726063848217</v>
+        <v>1295.76939964636</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>452.9904701896475</v>
+        <v>517.1829502645915</v>
       </c>
       <c r="C6" t="n">
-        <v>278.5374409085205</v>
+        <v>342.7299209834645</v>
       </c>
       <c r="D6" t="n">
-        <v>278.5374409085205</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>278.5374409085205</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="F6" t="n">
-        <v>132.0028829354055</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0028829354055</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787527</v>
+        <v>61.66788464787539</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>186.1577239806064</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189977</v>
+        <v>399.872217118998</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223499</v>
+        <v>668.6238185223503</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352478</v>
+        <v>958.8971200352485</v>
       </c>
       <c r="O6" t="n">
         <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703773</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699369</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419123</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419123</v>
+        <v>1336.162194486889</v>
       </c>
       <c r="V6" t="n">
-        <v>827.6166521873806</v>
+        <v>1101.010086255146</v>
       </c>
       <c r="W6" t="n">
-        <v>573.379295459179</v>
+        <v>1101.010086255146</v>
       </c>
       <c r="X6" t="n">
-        <v>573.379295459179</v>
+        <v>893.1585860496134</v>
       </c>
       <c r="Y6" t="n">
-        <v>452.9904701896475</v>
+        <v>685.3982872846595</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574685</v>
+        <v>64.24066662574694</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>132.1299861584116</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834797</v>
+        <v>206.9680378347973</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195365</v>
+        <v>287.8841338195368</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934715</v>
+        <v>342.3101561934719</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858002</v>
+        <v>354.2412105433788</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858002</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="V7" t="n">
-        <v>255.3506354602878</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="W7" t="n">
-        <v>255.3506354602878</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="X7" t="n">
-        <v>255.3506354602878</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675766</v>
+        <v>65.10546964306121</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.650443247784</v>
+        <v>1450.797099496961</v>
       </c>
       <c r="C8" t="n">
-        <v>852.1339951821336</v>
+        <v>1081.834582556549</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821336</v>
+        <v>723.5688839497986</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>337.7806313515544</v>
       </c>
       <c r="F8" t="n">
-        <v>55.3598377942818</v>
+        <v>330.8351306023509</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809314</v>
+        <v>318.8444893461623</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711883</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567166</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223595</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.789775223595</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.789775223595</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.650443247784</v>
+        <v>1837.396939561082</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>655.7157345966835</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>481.2627053155565</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>481.2627053155565</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>322.025250310101</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972667</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474385</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474385</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1560.716998527115</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1325.564890295372</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.32753356717</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>863.4760333616375</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>655.7157345966835</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809314</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809314</v>
+        <v>328.5302436235452</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809314</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126826</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>266.9730538454695</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>43.36919653809314</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>43.36919653809314</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809314</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809314</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809314</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809314</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>189.0729639753278</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>189.0729639753278</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>988.1395539230172</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>819.2033709951103</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>669.0867315827745</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>521.1736380003814</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>374.283690502471</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1618.570148794804</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1169.788018753257</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.140839595365</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2878.204656667458</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2734.882628085904</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.789304425605</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3206.505799599952</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>3037.569616672045</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>2887.452977259709</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>2739.539883677316</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3388.154264430192</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>3388.154264430192</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>962.6357307816191</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>793.6995478537123</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>643.5829084413765</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>495.6698148589834</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>348.779867361073</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>181.5837680759529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.284195611859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,19 +6475,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.8461362382112</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>472.9099533103043</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1044.287180211981</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>823.4946010684509</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2598873597751</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>235.5284942057738</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,10 +6934,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3175.34112979674</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868833</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456497</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874104</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.755729407251</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3379.766178509234</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3356.989594626979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7165,25 +7165,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,10 +7192,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
@@ -7207,7 +7207,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300426</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3210.485548300426</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.53722908186</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153954</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741618</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159225</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>4295.934959671808</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>4006.859733016005</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>3752.175244810118</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>3752.175244810118</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>3524.1856939121</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.1856939121</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7405,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3200.825397924057</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>3031.88921499615</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>4629.349854465665</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4409.748389488606</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4120.673162832804</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>4120.673162832804</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3831.255992795844</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3603.266441897827</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>3382.473862754297</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7657,7 +7657,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797189</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>97.5789915191115</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>45.99097492814153</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>67.52345255978847</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.726664722473316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.6711151870878</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.6711151870881</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>126.712610143158</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.0358353086626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>73.85777223953619</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1578210480454</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.9838267404994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846407</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846414</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
@@ -26334,7 +26334,7 @@
         <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365054</v>
@@ -26343,19 +26343,19 @@
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208455</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253125</v>
+        <v>270592.3620253124</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231942</v>
+        <v>115410.0540231928</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881968</v>
+        <v>62913.6376588197</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197523</v>
+        <v>27875.25362197488</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.338561669989887e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263463</v>
+        <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,19 +26441,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687955</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936815</v>
+        <v>76435.73471936819</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228993.7633819475</v>
+        <v>-228993.7633819479</v>
       </c>
       <c r="C6" t="n">
         <v>144252.9847136138</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.3784166774</v>
+        <v>323073.3784166782</v>
       </c>
       <c r="E6" t="n">
-        <v>-31927.76766854549</v>
+        <v>-32275.14692290311</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.4399057187</v>
+        <v>569168.0606513622</v>
       </c>
       <c r="G6" t="n">
-        <v>569515.439905719</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="H6" t="n">
-        <v>569515.439905719</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="I6" t="n">
-        <v>569515.4399057187</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="J6" t="n">
-        <v>520450.4951771739</v>
+        <v>520103.1159228171</v>
       </c>
       <c r="K6" t="n">
-        <v>506601.8022468991</v>
+        <v>506254.4229925422</v>
       </c>
       <c r="L6" t="n">
-        <v>541640.1862837439</v>
+        <v>541292.8070293872</v>
       </c>
       <c r="M6" t="n">
-        <v>412369.0593541209</v>
+        <v>412021.680099764</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057189</v>
+        <v>569168.0606513622</v>
       </c>
       <c r="O6" t="n">
-        <v>569515.4399057187</v>
+        <v>569168.0606513622</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057184</v>
+        <v>569168.0606513622</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950613</v>
+        <v>758.8996292950617</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594707</v>
+        <v>431.9757039594712</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821571</v>
+        <v>210.429688382157</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262357</v>
+        <v>94.81103524262244</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>244.4501167931511</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734841</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931511</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734844</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>244.4501167931511</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734841</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046879</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>234.2029710480148</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>252.3742555534856</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>140.5004476123455</v>
       </c>
       <c r="V3" t="n">
-        <v>53.12676429507073</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098472</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482796</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390163</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>289.1916737508585</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760046</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425915</v>
+        <v>23.94240680425906</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>131.1696282027321</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>43.32085084937514</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074793</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>117.2146888685346</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.49775876046809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27797,7 +27797,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304052</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589159</v>
+        <v>36.91115760589153</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>206.676269337453</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>138.8139133395707</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.17160818601405</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>31.60626487619459</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>191.6095004202712</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>12.73999905018397</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>54.47741176207487</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520268</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511775</v>
+        <v>481.4474502511777</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>535.70305339681</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610695</v>
+        <v>544.3712888610697</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.52130774898984</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,40 +31363,40 @@
         <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062486</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658084</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374452</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
         <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378879</v>
+        <v>6.579516597378881</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757163</v>
@@ -31439,28 +31439,28 @@
         <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>41.15475366734532</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635559</v>
+        <v>96.75348224635563</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
         <v>165.5147650514999</v>
@@ -31469,16 +31469,16 @@
         <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054708</v>
+        <v>61.53307486054711</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830801</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656349</v>
+        <v>0.07464586517656352</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>338.130958502898</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>338.130958502898</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33496,10 +33496,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>147.4873481937407</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33733,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>405.637736314576</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,10 +34207,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>77.89141170198405</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070464</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>305.3568201695373</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644786</v>
+        <v>314.9582252644788</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308267</v>
+        <v>207.4834477308269</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890162</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092688</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923148</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.7813799930009</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872818</v>
+        <v>68.38629016872827</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554464</v>
+        <v>29.98243465554469</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501472</v>
+        <v>68.57507023501483</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923087</v>
+        <v>75.59399159230881</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761559</v>
+        <v>81.73343028761568</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569191</v>
+        <v>54.97578017569199</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235231</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>206.7892464195647</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>206.7892464195647</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>20.64972152707399</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312427</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2929131.444981538</v>
+        <v>2930891.975284322</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>178.8948621820433</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>145.198658204325</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.53696330591237</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>85.36332079774546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443454</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276004</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>78.57111331219672</v>
+        <v>48.99854504422373</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>108.6193017554646</v>
+        <v>181.1025826998141</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>40.05337266685267</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304048</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>15.42206065199772</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>272.7205398799885</v>
+        <v>237.9934316509955</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.27697994470579</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>135.8754739680284</v>
+        <v>45.57047392326336</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.30373791808233</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.10107535865944</v>
+        <v>192.8019480235358</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.2476086063444</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>4.019807611472458</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>26.13627195705896</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>41.55695577161244</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>180.1003471321693</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.862417143344</v>
+        <v>224.59746731481</v>
       </c>
       <c r="C2" t="n">
-        <v>511.862417143344</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>511.862417143344</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>511.862417143344</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>322.4426321268591</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058979</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S2" t="n">
-        <v>511.862417143344</v>
+        <v>603.4370373477793</v>
       </c>
       <c r="T2" t="n">
-        <v>511.862417143344</v>
+        <v>603.4370373477793</v>
       </c>
       <c r="U2" t="n">
-        <v>511.862417143344</v>
+        <v>603.4370373477793</v>
       </c>
       <c r="V2" t="n">
-        <v>511.862417143344</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="W2" t="n">
-        <v>511.862417143344</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="X2" t="n">
-        <v>511.862417143344</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.862417143344</v>
+        <v>414.0172523312947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.1739116400124</v>
+        <v>392.4672266287267</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>218.0141973475997</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>69.0797876863484</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>69.0797876863484</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>69.0797876863484</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>69.0797876863484</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198765</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198765</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U3" t="n">
-        <v>512.5936966564973</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V3" t="n">
-        <v>512.5936966564973</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W3" t="n">
-        <v>512.5936966564973</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X3" t="n">
-        <v>323.1739116400124</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y3" t="n">
-        <v>323.1739116400124</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623018</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396344</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.76939964636</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.76939964636</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="D5" t="n">
-        <v>937.5037010396093</v>
+        <v>1155.051547851602</v>
       </c>
       <c r="E5" t="n">
-        <v>551.7154484413651</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517575</v>
+        <v>358.2773904637506</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746978</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030763</v>
+        <v>521.2049416030768</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709181</v>
+        <v>823.5081935709189</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837885</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837885</v>
+        <v>1562.810726301003</v>
       </c>
       <c r="T5" t="n">
-        <v>1648.538054916474</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="U5" t="n">
-        <v>1648.538054916474</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="V5" t="n">
-        <v>1648.538054916474</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.76939964636</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.76939964636</v>
+        <v>1513.317246458353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1295.76939964636</v>
+        <v>1513.317246458353</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1829502645915</v>
+        <v>357.945495259136</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834645</v>
+        <v>183.492465978009</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222132</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787539</v>
+        <v>61.66788464787548</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352485</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="U6" t="n">
-        <v>1336.162194486889</v>
+        <v>1262.946759189567</v>
       </c>
       <c r="V6" t="n">
-        <v>1101.010086255146</v>
+        <v>1027.794650957824</v>
       </c>
       <c r="W6" t="n">
-        <v>1101.010086255146</v>
+        <v>773.5572942296228</v>
       </c>
       <c r="X6" t="n">
-        <v>893.1585860496134</v>
+        <v>565.70579402409</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.3982872846595</v>
+        <v>357.945495259136</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="C7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="D7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306121</v>
+        <v>221.9059560034082</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306121</v>
+        <v>75.01600850549781</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306121</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306121</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306121</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574705</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="T7" t="n">
-        <v>354.2412105433788</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="U7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="V7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="W7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="X7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495858013</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1450.797099496961</v>
+        <v>1450.79709949696</v>
       </c>
       <c r="C8" t="n">
-        <v>1081.834582556549</v>
+        <v>1450.79709949696</v>
       </c>
       <c r="D8" t="n">
-        <v>723.5688839497986</v>
+        <v>1092.53140089021</v>
       </c>
       <c r="E8" t="n">
-        <v>337.7806313515544</v>
+        <v>706.7431482919656</v>
       </c>
       <c r="F8" t="n">
-        <v>330.8351306023509</v>
+        <v>295.757243502358</v>
       </c>
       <c r="G8" t="n">
-        <v>318.8444893461623</v>
+        <v>283.7666022461693</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809306</v>
@@ -4807,10 +4807,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>693.0104463829871</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>518.5574171018601</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>369.6230074406088</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>210.3855524351533</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4883,16 +4883,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,34 +4901,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1531.074939101743</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>861.2257834030552</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514521</v>
+        <v>276.6738474079218</v>
       </c>
       <c r="C10" t="n">
-        <v>328.5302436235452</v>
+        <v>107.7376644800149</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514521</v>
+        <v>276.6738474079218</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732381</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>189.0729639753278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>189.0729639753278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,31 +6147,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6189,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>265.073174061852</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>97.87707477673194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6885,25 +6885,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7405,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908938</v>
@@ -7563,10 +7563,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7672,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797189</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>45.99097492814153</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>67.07129414993909</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.6085800303777</v>
+        <v>32.90770736550132</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>56.99921249228339</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8770068749567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0.9259388694752602</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208455</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253124</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231928</v>
+        <v>115410.0540231923</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742653</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588197</v>
+        <v>62913.63765882004</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197488</v>
+        <v>27875.25362197477</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26420,13 +26420,13 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888978</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26441,13 +26441,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936819</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26524,46 +26524,46 @@
         <v>-228993.7633819479</v>
       </c>
       <c r="C6" t="n">
-        <v>144252.9847136138</v>
+        <v>144252.9847136135</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.3784166782</v>
+        <v>323073.3784166786</v>
       </c>
       <c r="E6" t="n">
-        <v>-32275.14692290311</v>
+        <v>-31962.50559398247</v>
       </c>
       <c r="F6" t="n">
-        <v>569168.0606513622</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="G6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802829</v>
       </c>
       <c r="H6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="I6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="J6" t="n">
-        <v>520103.1159228171</v>
+        <v>520415.7572517385</v>
       </c>
       <c r="K6" t="n">
-        <v>506254.4229925422</v>
+        <v>506567.064321463</v>
       </c>
       <c r="L6" t="n">
-        <v>541292.8070293872</v>
+        <v>541605.4483583085</v>
       </c>
       <c r="M6" t="n">
-        <v>412021.680099764</v>
+        <v>412334.321428685</v>
       </c>
       <c r="N6" t="n">
-        <v>569168.0606513622</v>
+        <v>569480.7019802834</v>
       </c>
       <c r="O6" t="n">
-        <v>569168.0606513622</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="P6" t="n">
-        <v>569168.0606513622</v>
+        <v>569480.7019802833</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950617</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382157</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262244</v>
+        <v>94.81103524262198</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666916</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666917</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666916</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>234.2029710480148</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.5771549857281</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>47.30479404482734</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>140.5004476123455</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098452</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482796</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,7 +27590,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356658</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760034</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425906</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>131.1696282027321</v>
+        <v>160.7421964707051</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937514</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074793</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,13 +27751,13 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>117.2146888685346</v>
+        <v>44.73140792418502</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>126.5690991633691</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589153</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>206.676269337453</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>31.60626487619459</v>
+        <v>66.33337310518755</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>115.2302539023295</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.73999905018397</v>
+        <v>103.044999094949</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610697</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
         <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898984</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062486</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635563</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054711</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830801</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656352</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>573.8098963904295</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32083,19 +32083,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N15" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644788</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308269</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890162</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923148</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872827</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501483</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230881</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761568</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569199</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235231</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>431.6758624684112</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N15" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
